--- a/採番台帳.xlsx
+++ b/採番台帳.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git3\Mt4Indicator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095B283-F9E3-4449-A796-2ABFD063E20E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表示系インジケータ（001～）" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
   <si>
     <t>N.o</t>
     <phoneticPr fontId="1"/>
@@ -718,12 +724,16 @@
     <t>Otyame022_Disp</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +887,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -923,7 +941,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,9 +973,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,6 +1025,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1164,14 +1218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
@@ -1184,7 +1238,7 @@
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5">
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1242,7 +1296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1269,7 +1323,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="54">
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1298,7 +1352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1327,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="67.5">
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1356,7 +1410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1385,7 +1439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1414,7 +1468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27">
+    <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1443,7 +1497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1472,7 +1526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1501,7 +1555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5">
+    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1530,7 +1584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1559,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1588,7 +1642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="94.5">
+    <row r="15" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1617,7 +1671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1640,7 +1694,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1663,7 +1717,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1686,7 +1740,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1709,7 +1763,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1732,7 +1786,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1755,7 +1809,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1776,7 +1830,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1797,7 +1851,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1810,11 +1864,13 @@
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1831,7 +1887,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1848,7 +1904,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1865,7 +1921,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1882,7 +1938,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1899,7 +1955,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1916,7 +1972,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1933,7 +1989,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1950,7 +2006,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1970,18 +2026,19 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
@@ -1994,7 +2051,7 @@
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2048,7 +2105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2071,7 +2128,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2094,7 +2151,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2117,7 +2174,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2140,7 +2197,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2163,7 +2220,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2186,7 +2243,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2207,7 +2264,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2228,7 +2285,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2249,7 +2306,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2270,7 +2327,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2291,7 +2348,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2312,7 +2369,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2333,7 +2390,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2354,7 +2411,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2375,7 +2432,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2394,7 +2451,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2415,7 +2472,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2436,7 +2493,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2453,7 +2510,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2470,7 +2527,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2487,7 +2544,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2504,7 +2561,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2521,7 +2578,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2538,7 +2595,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2555,7 +2612,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2572,7 +2629,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2589,7 +2646,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2606,7 +2663,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2623,7 +2680,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2640,7 +2697,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2664,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2674,7 +2731,7 @@
       <selection activeCell="D16" sqref="D16:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
@@ -2687,7 +2744,7 @@
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42">
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2739,7 +2796,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2756,7 +2813,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2773,7 +2830,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2790,7 +2847,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2807,7 +2864,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2824,7 +2881,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2841,7 +2898,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2858,7 +2915,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2875,7 +2932,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2892,7 +2949,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2909,7 +2966,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2926,7 +2983,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2943,7 +3000,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2960,7 +3017,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2977,7 +3034,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2994,7 +3051,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3011,7 +3068,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3028,7 +3085,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3045,7 +3102,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3062,7 +3119,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3079,7 +3136,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3096,7 +3153,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3113,7 +3170,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3130,7 +3187,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3147,7 +3204,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3164,7 +3221,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3181,7 +3238,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3198,7 +3255,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3215,7 +3272,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3232,7 +3289,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3249,7 +3306,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>

--- a/採番台帳.xlsx
+++ b/採番台帳.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git3\Mt4Indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095B283-F9E3-4449-A796-2ABFD063E20E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F887792E-0FCA-4A09-8C71-F8B6CA540C4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
   <si>
     <t>N.o</t>
     <phoneticPr fontId="1"/>
@@ -726,6 +726,10 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1222,7 +1226,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1737,7 +1741,9 @@
         <v>88</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
